--- a/request spreadsheets/PLTrequest.xlsx
+++ b/request spreadsheets/PLTrequest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dft/Documents/Naptan stop templates and script/request spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dft/PycharmProjects/NaPTAN-xlsx-xml-import/request spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4722E1-30B9-604E-A91E-009F668E44BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749DF38D-CA0A-7B48-A956-AEE02F37FC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="580" windowWidth="33600" windowHeight="19200" xr2:uid="{33265FF0-805D-DC45-B245-6395E91CA3D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>CommonName</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Barking Testside new</t>
   </si>
   <si>
-    <t>Street</t>
-  </si>
-  <si>
     <t>Longitude</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>Barking Ferry</t>
   </si>
   <si>
-    <t>ferry street</t>
-  </si>
-  <si>
     <t>9400ZZBPCLP1</t>
   </si>
   <si>
@@ -137,13 +131,13 @@
     <t>blpamjdt</t>
   </si>
   <si>
-    <t>Landmark</t>
-  </si>
-  <si>
     <t>broken ferry</t>
   </si>
   <si>
     <t>PLT</t>
+  </si>
+  <si>
+    <t>Indicator</t>
   </si>
 </sst>
 </file>
@@ -512,20 +506,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29084EE-9877-FD4C-B31E-5145E7B44BBE}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -540,54 +534,51 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
@@ -596,66 +587,63 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="I2" s="2">
+        <v>546944</v>
+      </c>
       <c r="J2" s="2">
-        <v>546944</v>
+        <v>182222</v>
       </c>
       <c r="K2" s="2">
-        <v>182222</v>
+        <v>-2.4419676053099999</v>
       </c>
       <c r="L2" s="2">
-        <v>-2.4419676053099999</v>
+        <v>54.814594497770003</v>
       </c>
       <c r="M2" s="2">
-        <v>54.814594497770003</v>
-      </c>
-      <c r="N2" s="2">
         <v>1</v>
+      </c>
+      <c r="N2" s="3">
+        <v>44652</v>
       </c>
       <c r="O2" s="3">
         <v>44652</v>
       </c>
-      <c r="P2" s="3">
-        <v>44652</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="2">
+      <c r="Q2" s="2">
         <v>0</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T2">
+      <c r="S2">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{83DC678A-362C-6D49-A1CC-182F3C0C4F23}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{83DC678A-362C-6D49-A1CC-182F3C0C4F23}">
       <formula1>"1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{9247FB47-D695-0840-836B-8FF0E67DC642}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{9247FB47-D695-0840-836B-8FF0E67DC642}">
       <formula1>"new, revise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576" xr:uid="{7D82AD20-8742-E041-976A-38E047E192B5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{7D82AD20-8742-E041-976A-38E047E192B5}">
       <formula1>"active, inactive"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{0B63B883-5D44-1240-8E0A-00A1B1E2BAC6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{0B63B883-5D44-1240-8E0A-00A1B1E2BAC6}">
       <formula1>"PLT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -696,10 +684,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -719,7 +707,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
